--- a/dividends_data.xlsx
+++ b/dividends_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Calendar</t>
   </si>
@@ -58,7 +58,7 @@
     <t>5-Yr Avg</t>
   </si>
   <si>
-    <t>0.8</t>
+    <t>1.93</t>
   </si>
   <si>
     <t>Dividend Per Share</t>
@@ -73,7 +73,7 @@
     <t>Total Yield %</t>
   </si>
   <si>
-    <t>8.93</t>
+    <t>26.64  14.34</t>
   </si>
   <si>
     <t>Payout Ratio %</t>
@@ -82,40 +82,16 @@
     <t>—</t>
   </si>
   <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>1.18</t>
-  </si>
-  <si>
-    <t>1.52</t>
-  </si>
-  <si>
-    <t>2.48</t>
-  </si>
-  <si>
-    <t>2.33</t>
-  </si>
-  <si>
-    <t>5.01</t>
-  </si>
-  <si>
-    <t>3.46</t>
-  </si>
-  <si>
-    <t>2.94</t>
-  </si>
-  <si>
-    <t>2.99</t>
-  </si>
-  <si>
-    <t>1.23</t>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>3.71</t>
+  </si>
+  <si>
+    <t>16.58</t>
   </si>
 </sst>
 </file>
@@ -532,41 +508,41 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
+      <c r="B3">
+        <v>0.51</v>
+      </c>
+      <c r="C3">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.62</v>
+      </c>
+      <c r="E3">
+        <v>0.71</v>
+      </c>
+      <c r="F3">
+        <v>0.76</v>
+      </c>
+      <c r="G3">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.87</v>
+      </c>
+      <c r="I3">
+        <v>0.91</v>
+      </c>
+      <c r="J3">
+        <v>0.95</v>
       </c>
       <c r="K3">
-        <v>0.6</v>
+        <v>0.99</v>
       </c>
       <c r="L3">
-        <v>0.8</v>
+        <v>1.01</v>
       </c>
       <c r="M3">
-        <v>0.8</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="s">
         <v>21</v>
@@ -576,132 +552,132 @@
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>1.93</v>
+      </c>
+      <c r="C4">
+        <v>1.93</v>
+      </c>
+      <c r="D4">
+        <v>1.45</v>
+      </c>
+      <c r="E4">
+        <v>1.79</v>
+      </c>
+      <c r="F4">
+        <v>1.04</v>
+      </c>
+      <c r="G4">
+        <v>0.61</v>
+      </c>
+      <c r="H4">
+        <v>0.49</v>
+      </c>
+      <c r="I4">
+        <v>0.7</v>
+      </c>
+      <c r="J4">
+        <v>0.49</v>
+      </c>
+      <c r="K4">
+        <v>0.4</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <v>0.5</v>
+      </c>
+      <c r="N4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4">
-        <v>0.32</v>
-      </c>
-      <c r="L4">
-        <v>0.47</v>
-      </c>
-      <c r="M4">
-        <v>0.47</v>
-      </c>
-      <c r="N4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5">
+        <v>5.91</v>
+      </c>
+      <c r="C5">
+        <v>4.73</v>
+      </c>
+      <c r="D5">
+        <v>3.76</v>
+      </c>
+      <c r="E5">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="F5">
+        <v>5.07</v>
+      </c>
+      <c r="G5">
+        <v>3.17</v>
+      </c>
+      <c r="H5">
+        <v>2.91</v>
+      </c>
+      <c r="I5">
+        <v>4.33</v>
+      </c>
+      <c r="J5">
+        <v>2.59</v>
+      </c>
+      <c r="K5">
+        <v>2.51</v>
+      </c>
+      <c r="L5">
+        <v>3.38</v>
+      </c>
+      <c r="M5">
+        <v>3.38</v>
+      </c>
+      <c r="N5" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5">
-        <v>2.71</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6">
+        <v>7.84</v>
+      </c>
+      <c r="C6">
+        <v>6.66</v>
+      </c>
+      <c r="D6">
+        <v>5.21</v>
+      </c>
+      <c r="E6">
+        <v>11.42</v>
+      </c>
+      <c r="F6">
+        <v>6.1</v>
+      </c>
+      <c r="G6">
+        <v>3.78</v>
+      </c>
+      <c r="H6">
+        <v>3.4</v>
+      </c>
+      <c r="I6">
+        <v>5.03</v>
+      </c>
+      <c r="J6">
+        <v>3.08</v>
+      </c>
+      <c r="K6">
+        <v>2.9</v>
+      </c>
+      <c r="L6">
+        <v>3.88</v>
+      </c>
+      <c r="M6">
+        <v>3.88</v>
+      </c>
+      <c r="N6" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6">
-        <v>3.02</v>
-      </c>
-      <c r="L6">
-        <v>3.48</v>
-      </c>
-      <c r="M6">
-        <v>3.48</v>
-      </c>
-      <c r="N6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -713,44 +689,44 @@
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
+      <c r="B8">
+        <v>21.53</v>
+      </c>
+      <c r="C8">
+        <v>26.64</v>
+      </c>
+      <c r="D8">
+        <v>25.28</v>
+      </c>
+      <c r="E8">
+        <v>23.17</v>
+      </c>
+      <c r="F8">
+        <v>24.01</v>
+      </c>
+      <c r="G8">
+        <v>21.81</v>
+      </c>
+      <c r="H8">
+        <v>14.34</v>
+      </c>
+      <c r="I8">
+        <v>15.45</v>
+      </c>
+      <c r="J8">
+        <v>14.8</v>
       </c>
       <c r="K8">
-        <v>7.46</v>
+        <v>15.71</v>
       </c>
       <c r="L8">
-        <v>8.93</v>
+        <v>15.58</v>
       </c>
       <c r="M8">
-        <v>8.93</v>
+        <v>15.58</v>
       </c>
       <c r="N8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
